--- a/1. league_castle/1.1) 2017-08-23_catle_league_day3_act.xlsx
+++ b/1. league_castle/1.1) 2017-08-23_catle_league_day3_act.xlsx
@@ -863,16 +863,16 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>16</v>
       </c>
       <c r="J6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>16</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1645,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17">
         <v>4</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1811,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <v>4</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="G27">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H27">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I27">
         <v>98</v>
@@ -2492,10 +2492,10 @@
         <v>136</v>
       </c>
       <c r="K27">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27">
         <v>28</v>

--- a/1. league_castle/1.1) 2017-08-23_catle_league_day3_act.xlsx
+++ b/1. league_castle/1.1) 2017-08-23_catle_league_day3_act.xlsx
@@ -540,25 +540,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C2">
         <v>35</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -626,13 +626,13 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -863,16 +863,16 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -943,19 +943,19 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>16</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1020,22 +1020,22 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1097,31 +1097,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1183,17 +1183,17 @@
         <v>6</v>
       </c>
       <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1257,19 +1257,19 @@
         <v>1</v>
       </c>
       <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
       <c r="N11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1334,16 +1334,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>8</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1565,25 +1565,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1645,25 +1645,25 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1722,25 +1722,25 @@
         <v>0</v>
       </c>
       <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17">
         <v>4</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -1811,16 +1811,16 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1891,13 +1891,13 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2051,11 +2051,11 @@
         <v>0</v>
       </c>
       <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
         <v>2</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
       <c r="T21">
         <v>0</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2465,55 +2465,55 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C27">
         <v>38</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F27">
+        <v>96</v>
+      </c>
+      <c r="G27">
+        <v>103</v>
+      </c>
+      <c r="H27">
+        <v>159</v>
+      </c>
+      <c r="I27">
         <v>93</v>
-      </c>
-      <c r="G27">
-        <v>94</v>
-      </c>
-      <c r="H27">
-        <v>158</v>
-      </c>
-      <c r="I27">
-        <v>98</v>
       </c>
       <c r="J27">
         <v>136</v>
       </c>
       <c r="K27">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N27">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P27">
         <v>16</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S27">
         <v>4</v>
